--- a/fish.xlsx
+++ b/fish.xlsx
@@ -113,12 +113,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xuying:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鱼价格=质量*系数
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +177,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>d3</t>
   </si>
   <si>
     <t>int</t>
@@ -1249,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,7 +1295,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,89 +1332,98 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
         <f>INT((ROW()-3)/5-0.1)+200001</f>
@@ -1398,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
         <v>0.5</v>
@@ -1413,18 +1448,21 @@
         <v>1000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:12">
+      <c r="M4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <f>INT((ROW()-3)/5-0.1)+200001</f>
@@ -1434,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>0.5</v>
@@ -1449,18 +1487,21 @@
         <v>1000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="M5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <f>INT((ROW()-3)/5-0.1)+200001</f>
@@ -1470,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>0.5</v>
@@ -1485,18 +1526,21 @@
         <v>1000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="M6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <f>INT((ROW()-3)/5-0.1)+200001</f>
@@ -1506,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
         <v>0.5</v>
@@ -1521,18 +1565,21 @@
         <v>1000</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:12">
+      <c r="M7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:13">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <f>INT((ROW()-3)/5-0.1)+200001</f>
@@ -1542,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>0.5</v>
@@ -1557,18 +1604,21 @@
         <v>1000</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="M8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:D18" si="0">INT((ROW()-3)/5-0.1)+200001</f>
@@ -1578,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1593,18 +1643,21 @@
         <v>2000</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:12">
+      <c r="M9" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:13">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
@@ -1614,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1629,18 +1682,21 @@
         <v>2000</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:12">
+      <c r="M10" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:13">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -1650,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1665,18 +1721,21 @@
         <v>2000</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:12">
+      <c r="M11" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:13">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
@@ -1686,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1701,18 +1760,21 @@
         <v>2000</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:12">
+      <c r="M12" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:13">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
@@ -1722,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1737,18 +1799,21 @@
         <v>2000</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
@@ -1758,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2">
         <v>0.5</v>
@@ -1773,18 +1838,21 @@
         <v>1000</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
@@ -1794,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2">
         <v>0.5</v>
@@ -1809,18 +1877,21 @@
         <v>1000</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
@@ -1830,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
@@ -1845,18 +1916,21 @@
         <v>1000</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
@@ -1866,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2">
         <v>0.5</v>
@@ -1881,18 +1955,21 @@
         <v>1000</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
@@ -1902,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
         <v>0.5</v>
@@ -1917,18 +1994,21 @@
         <v>1000</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:D28" si="1">INT((ROW()-3)/5-0.1)+200001</f>
@@ -1938,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1953,18 +2033,21 @@
         <v>2000</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L19" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
@@ -1974,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1989,18 +2072,21 @@
         <v>2000</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
@@ -2010,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -2025,18 +2111,21 @@
         <v>2000</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
@@ -2046,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -2061,18 +2150,21 @@
         <v>2000</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L22" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
@@ -2082,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -2097,18 +2189,21 @@
         <v>2000</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
@@ -2118,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2">
         <v>0.5</v>
@@ -2133,18 +2228,21 @@
         <v>1000</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="1"/>
@@ -2154,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="2">
         <v>0.5</v>
@@ -2169,18 +2267,21 @@
         <v>1000</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="1"/>
@@ -2190,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2">
         <v>0.5</v>
@@ -2205,18 +2306,21 @@
         <v>1000</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="1"/>
@@ -2226,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2">
         <v>0.5</v>
@@ -2241,18 +2345,21 @@
         <v>1000</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
@@ -2262,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2">
         <v>0.5</v>
@@ -2277,18 +2384,21 @@
         <v>1000</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L28" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:D38" si="2">INT((ROW()-3)/5-0.1)+200001</f>
@@ -2298,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2313,18 +2423,21 @@
         <v>2000</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L29" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="2"/>
@@ -2334,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2349,18 +2462,21 @@
         <v>2000</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="2"/>
@@ -2370,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -2385,18 +2501,21 @@
         <v>2000</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L31" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="2"/>
@@ -2406,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2421,18 +2540,21 @@
         <v>2000</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L32" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="2"/>
@@ -2442,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -2457,18 +2579,21 @@
         <v>2000</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="2"/>
@@ -2478,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2">
         <v>0.5</v>
@@ -2493,18 +2618,21 @@
         <v>1000</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L34" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="2"/>
@@ -2514,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35" s="2">
         <v>0.5</v>
@@ -2529,18 +2657,21 @@
         <v>1000</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L35" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="2"/>
@@ -2550,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" s="2">
         <v>0.5</v>
@@ -2565,18 +2696,21 @@
         <v>1000</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="2"/>
@@ -2586,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2">
         <v>0.5</v>
@@ -2601,18 +2735,21 @@
         <v>1000</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L37" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="2"/>
@@ -2622,7 +2759,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" s="2">
         <v>0.5</v>
@@ -2637,18 +2774,21 @@
         <v>1000</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L38" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ref="D39:D48" si="3">INT((ROW()-3)/5-0.1)+200001</f>
@@ -2658,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -2673,18 +2813,21 @@
         <v>2000</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L39" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="3"/>
@@ -2694,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -2709,18 +2852,21 @@
         <v>2000</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L40" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="3"/>
@@ -2730,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -2745,18 +2891,21 @@
         <v>2000</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L41" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="3"/>
@@ -2766,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -2781,18 +2930,21 @@
         <v>2000</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L42" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="3"/>
@@ -2802,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -2817,18 +2969,21 @@
         <v>2000</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L43" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="3"/>
@@ -2838,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="2">
         <v>0.5</v>
@@ -2853,18 +3008,21 @@
         <v>1000</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L44" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="3"/>
@@ -2874,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G45" s="2">
         <v>0.5</v>
@@ -2889,18 +3047,21 @@
         <v>1000</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="3"/>
@@ -2910,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2">
         <v>0.5</v>
@@ -2925,18 +3086,21 @@
         <v>1000</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L46" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="3"/>
@@ -2946,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" s="2">
         <v>0.5</v>
@@ -2961,18 +3125,21 @@
         <v>1000</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L47" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="3"/>
@@ -2982,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" s="2">
         <v>0.5</v>
@@ -2997,18 +3164,21 @@
         <v>1000</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L48" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ref="D49:D63" si="4">INT((ROW()-3)/5-0.1)+200001</f>
@@ -3018,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -3033,18 +3203,21 @@
         <v>1000</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L49" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="4"/>
@@ -3054,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -3069,18 +3242,21 @@
         <v>2000</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L50" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="4"/>
@@ -3090,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -3105,18 +3281,21 @@
         <v>2000</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L51" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="4"/>
@@ -3126,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -3141,18 +3320,21 @@
         <v>2000</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L52" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="4"/>
@@ -3162,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -3177,18 +3359,21 @@
         <v>2000</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L53" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="4"/>
@@ -3198,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2">
         <v>4.1</v>
@@ -3213,18 +3398,21 @@
         <v>2000</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L54" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="4"/>
@@ -3234,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55" s="2">
         <v>4.1</v>
@@ -3249,18 +3437,21 @@
         <v>2000</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L55" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="4"/>
@@ -3270,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G56" s="2">
         <v>4.1</v>
@@ -3285,18 +3476,21 @@
         <v>2000</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L56" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="4"/>
@@ -3306,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="2">
         <v>4.1</v>
@@ -3321,18 +3515,21 @@
         <v>2000</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L57" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="4"/>
@@ -3342,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G58" s="2">
         <v>4.1</v>
@@ -3357,18 +3554,21 @@
         <v>2000</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L58" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="4"/>
@@ -3378,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G59" s="2">
         <v>4.1</v>
@@ -3393,18 +3593,21 @@
         <v>20000</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L59" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="4"/>
@@ -3414,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G60" s="2">
         <v>4.1</v>
@@ -3429,18 +3632,21 @@
         <v>20000</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L60" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="4"/>
@@ -3450,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G61" s="2">
         <v>4.1</v>
@@ -3465,18 +3671,21 @@
         <v>20000</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L61" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="4"/>
@@ -3486,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G62" s="2">
         <v>4.1</v>
@@ -3501,18 +3710,21 @@
         <v>20000</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L62" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="4"/>
@@ -3522,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G63" s="2">
         <v>4.1</v>
@@ -3537,9 +3749,12 @@
         <v>20000</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L63" s="2">
+        <v>20000</v>
+      </c>
+      <c r="M63" s="2">
         <v>20000</v>
       </c>
     </row>
